--- a/user-data/poverty-190/poverty-190.xlsx
+++ b/user-data/poverty-190/poverty-190.xlsx
@@ -816,7 +816,7 @@
     <t xml:space="preserve">Name: poverty-190</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Percentage of population living under $1.90 per day.</t>
+    <t xml:space="preserve">Description: Percentage of population living under 2011 PPP$ 1.90 per day.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: percent</t>
